--- a/biology/Médecine/Embarras/Embarras.xlsx
+++ b/biology/Médecine/Embarras/Embarras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'embarras est un état émotionnel causé par un acte perçu comme inacceptable par le sujet et révélé aux autres. Habituellement, une perte d'honneur ou de dignité est impliquée, mais cela dépend des situations. L'embarras est proche de la honte.
 </t>
